--- a/RPA_Meteo_Alert/Data/Alerts.xlsx
+++ b/RPA_Meteo_Alert/Data/Alerts.xlsx
@@ -1,83 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B11980-3699-471A-9063-48969C21EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22356" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Italy" sheetId="5" r:id="rId1"/>
-    <sheet name="France" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BDEF3-540A-4D51-A99A-B1707952F3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="22356" windowHeight="13176" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Italy" sheetId="5" r:id="rId1"/>
+    <x:sheet name="France" sheetId="4" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Lazio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andorre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savoie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moderate avalanches warning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moderate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meuse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moderate flooding warning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Somme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moderate wind warning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seine-Maritime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pas-de-Calais</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nord</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morbihan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ille-et-Vilaine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Finistère</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Côtes d'Armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calvados</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ardennes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moderate snow-ice warning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moselle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meurthe-et-Moselle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aisne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moderate coastalevent warning</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,37 +440,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C37E5D3-4271-4D74-AA7A-6E13BC2BD9DB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{6C37E5D3-4271-4D74-AA7A-6E13BC2BD9DB}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D505045-DE11-48CA-B562-C717BA9C0AAD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{1D505045-DE11-48CA-B562-C717BA9C0AAD}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA3AC12-F741-431E-9881-7FF8C8ECE3B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2FA3AC12-F741-431E-9881-7FF8C8ECE3B1}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="H13" sqref="H13"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.554688" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.332031" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/RPA_Meteo_Alert/Data/Alerts.xlsx
+++ b/RPA_Meteo_Alert/Data/Alerts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA0423-5193-44F8-B52E-6068599A6239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94C625-BAD9-420C-90DB-A03B3409AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="16608" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="16608" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="8" r:id="rId1"/>
@@ -26,15 +26,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t>Severity</t>
+    <t xml:space="preserve"> Alert Type</t>
+  </si>
+  <si>
+    <t>Awareness level</t>
+  </si>
+  <si>
+    <t>Friuli Venezia Giulia</t>
+  </si>
+  <si>
+    <t>Yellow Fog Warning</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Veneto</t>
+  </si>
+  <si>
+    <t>Lombardia</t>
+  </si>
+  <si>
+    <t>Emilia e Romagna</t>
+  </si>
+  <si>
+    <t>Savoie</t>
+  </si>
+  <si>
+    <t>Moderate avalanches warning</t>
+  </si>
+  <si>
+    <t>Meuse</t>
+  </si>
+  <si>
+    <t>Moderate flooding warning</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moderate wind warning</t>
+  </si>
+  <si>
+    <t>Seine-Maritime</t>
+  </si>
+  <si>
+    <t>Pas-de-Calais</t>
+  </si>
+  <si>
+    <t>Orne</t>
+  </si>
+  <si>
+    <t>Oise</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Morbihan</t>
+  </si>
+  <si>
+    <t>Manche</t>
+  </si>
+  <si>
+    <t>Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t>Finistère</t>
+  </si>
+  <si>
+    <t>Eure</t>
+  </si>
+  <si>
+    <t>Côtes d'Armor</t>
+  </si>
+  <si>
+    <t>Calvados</t>
+  </si>
+  <si>
+    <t>Ardennes</t>
+  </si>
+  <si>
+    <t>Moderate snow-ice warning</t>
+  </si>
+  <si>
+    <t>Moselle</t>
+  </si>
+  <si>
+    <t>Meurthe-et-Moselle</t>
+  </si>
+  <si>
+    <t>Marne</t>
+  </si>
+  <si>
+    <t>Aisne</t>
+  </si>
+  <si>
+    <t>Moderate coastalevent warning</t>
   </si>
 </sst>
 </file>
@@ -352,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3E3EFE-28BE-4D41-A230-C8BE43C6BAB1}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -369,6 +462,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -376,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4A8625-DA19-47BA-8D68-56501A4FA69F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +530,270 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPA_Meteo_Alert/Data/Alerts.xlsx
+++ b/RPA_Meteo_Alert/Data/Alerts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94C625-BAD9-420C-90DB-A03B3409AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4843A38D-FBCB-4F89-A995-AA8DBD257EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="16608" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22356" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="8" r:id="rId1"/>
@@ -515,9 +515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4A8625-DA19-47BA-8D68-56501A4FA69F}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/RPA_Meteo_Alert/Data/Alerts.xlsx
+++ b/RPA_Meteo_Alert/Data/Alerts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C3493-6365-450E-A348-51040A265E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A2B86-95CD-49E1-9449-C076D35C5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="16608" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16608" windowHeight="9420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -1873,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24580D37-7B1F-4F18-A8D7-389184A505CD}">
   <dimension ref="A1:C1299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
+    <sheetView topLeftCell="A603" workbookViewId="0">
       <selection activeCell="H614" sqref="H614"/>
     </sheetView>
   </sheetViews>
@@ -16181,7 +16181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F72ACE-100A-40BA-BA55-133EB138B5AE}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/RPA_Meteo_Alert/Data/Alerts.xlsx
+++ b/RPA_Meteo_Alert/Data/Alerts.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDACA3FD-F06A-4F1D-B680-EC4060BC881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85304540-0371-4A12-B390-BDD979697D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="16608" windowHeight="9420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="18300" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
-    <sheet name="Italy" sheetId="11" r:id="rId2"/>
-    <sheet name="Germany" sheetId="12" r:id="rId3"/>
-    <sheet name="France" sheetId="10" r:id="rId4"/>
-    <sheet name="Romania" sheetId="13" r:id="rId5"/>
+    <sheet name="Italy" sheetId="11" r:id="rId1"/>
+    <sheet name="Germany" sheetId="12" r:id="rId2"/>
+    <sheet name="France" sheetId="10" r:id="rId3"/>
+    <sheet name="Romania" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1896,22 +1895,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D74A8F-31FC-40B5-87C3-31C91F2A885A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C8756A-A79A-4AF4-B526-2EF759E1EB85}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2153,17 +2140,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24580D37-7B1F-4F18-A8D7-389184A505CD}">
   <dimension ref="A1:C1851"/>
   <sheetViews>
-    <sheetView topLeftCell="A603" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H614" sqref="H614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22533,7 +22520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F72ACE-100A-40BA-BA55-133EB138B5AE}">
   <dimension ref="A1:C66"/>
   <sheetViews>
@@ -23274,13 +23261,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A23DF-13A7-4896-83C1-BB82BBDDFE13}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
